--- a/matrix/reviewed/windows/login_reviewed/login_ui_design_reviewed.xlsx
+++ b/matrix/reviewed/windows/login_reviewed/login_ui_design_reviewed.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B685A0D5-16FB-4FCD-8FDA-51D9C9EB55E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B68FC0F-0126-49E5-8D94-573BF1EE48BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -308,15 +308,139 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp62.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
@@ -2411,67 +2535,1928 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Picture 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="581025"/>
-          <a:ext cx="619125" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1089" name="Check Box 65" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1089"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64AF560C-0DFA-40C1-811A-1412E3B6D0E6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1090" name="Check Box 66" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1090"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F65912-3B7A-4800-9DBA-5D1958B53F16}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1091" name="Check Box 67" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1091"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CDA8496-AEE1-42BD-BE8D-2C128030332E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1092" name="Check Box 68" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1092"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEB90D19-66D0-4783-BE67-69995CAE10D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1093" name="Check Box 69" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1093"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40A8D7FF-8A83-4A3D-A93E-C248B124DC09}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1094" name="Check Box 70" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1094"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33F83B9E-F57A-4B94-BB7A-057E7C38E1A7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1095" name="Check Box 71" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1095"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8211C8B-A78C-4E13-B8E4-174521794B8C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1096" name="Check Box 72" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1096"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0207FDFD-6222-416F-B335-933A51400730}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1097" name="Check Box 73" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1097"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3DE2024-34A0-4725-8176-DCCF7F765312}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1098" name="Check Box 74" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1098"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09673389-1472-453D-890F-ACE8C9E3C913}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1099" name="Check Box 75" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1099"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D7E7B0E-7926-4012-992E-CC8E1B2294B1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1100" name="Check Box 76" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1100"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C150FDEA-F206-4D42-BC8F-6E0B55F1AD7F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1101" name="Check Box 77" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1101"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A515D73-DB34-4235-9C3A-99339709B6F6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1102" name="Check Box 78" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1102"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AAE90C4-F13F-4631-AF44-41DBD383690B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1103" name="Check Box 79" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1103"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EAB3D71-6D20-468C-85AB-FA13BDD50E73}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1104" name="Check Box 80" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1104"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD08516-3793-4C51-A50C-0D2B5E3BBCF1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1105" name="Check Box 81" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1105"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F320B72-1CF5-41CC-B4A9-B8794C6EB42D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1106" name="Check Box 82" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1106"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62800557-B69B-4965-AC45-4DE4E87F8412}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1107" name="Check Box 83" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1107"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB0006A6-3EA1-46D2-822D-490FF9F46122}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1108" name="Check Box 84" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1108"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F2AF58A-9A9A-405D-BFBF-508C08848978}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1109" name="Check Box 85" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1109"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{426B670D-D298-422E-BDBA-ACF258C3949D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1110" name="Check Box 86" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1110"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{578707E0-1760-4570-AA10-75CF3C40473F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1111" name="Check Box 87" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1111"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A30543-9BCA-49FC-9250-B853279D7ED6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1112" name="Check Box 88" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1112"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F915EE0-CB1C-4F70-A0F5-AF672D0F4A12}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1113" name="Check Box 89" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1113"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE2A551-F2C8-4503-8587-BDA9F1B8A7D0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1114" name="Check Box 90" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1114"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F91D1306-F69B-40AB-8C11-783D3515188E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1115" name="Check Box 91" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1115"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6436718C-9923-4418-B683-754AF787E340}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1116" name="Check Box 92" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1116"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6A41035-2426-4D28-8CB0-1090E04647E8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1117" name="Check Box 93" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1117"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A53943DB-DCAB-49C2-8137-5827A638F1D3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1118" name="Check Box 94" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1118"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC797205-7873-43FF-B0D9-9849D70F58EB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1119" name="Check Box 95" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1119"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9223B06C-6136-4F3B-9563-E597B26B5447}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -2738,10 +4723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O6"/>
+  <dimension ref="B1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2875,6 +4860,137 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
+    </row>
+    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>45313</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3565,6 +5681,688 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1089" r:id="rId34" name="Check Box 65">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1090" r:id="rId35" name="Check Box 66">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1091" r:id="rId36" name="Check Box 67">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1092" r:id="rId37" name="Check Box 68">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1093" r:id="rId38" name="Check Box 69">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1094" r:id="rId39" name="Check Box 70">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1095" r:id="rId40" name="Check Box 71">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1096" r:id="rId41" name="Check Box 72">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1097" r:id="rId42" name="Check Box 73">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1098" r:id="rId43" name="Check Box 74">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1099" r:id="rId44" name="Check Box 75">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1100" r:id="rId45" name="Check Box 76">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1101" r:id="rId46" name="Check Box 77">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1102" r:id="rId47" name="Check Box 78">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1103" r:id="rId48" name="Check Box 79">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1104" r:id="rId49" name="Check Box 80">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1105" r:id="rId50" name="Check Box 81">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1106" r:id="rId51" name="Check Box 82">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1107" r:id="rId52" name="Check Box 83">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1108" r:id="rId53" name="Check Box 84">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1109" r:id="rId54" name="Check Box 85">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1110" r:id="rId55" name="Check Box 86">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1111" r:id="rId56" name="Check Box 87">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1112" r:id="rId57" name="Check Box 88">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1113" r:id="rId58" name="Check Box 89">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1114" r:id="rId59" name="Check Box 90">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1115" r:id="rId60" name="Check Box 91">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1116" r:id="rId61" name="Check Box 92">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1117" r:id="rId62" name="Check Box 93">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1118" r:id="rId63" name="Check Box 94">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1119" r:id="rId64" name="Check Box 95">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
